--- a/mainexcel/squad4/Мд-22-1.xlsx
+++ b/mainexcel/squad4/Мд-22-1.xlsx
@@ -127,6 +127,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -646,23 +647,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
-    <col min="3" max="3" width="4.7109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="2.7109375" customWidth="1"/>
-    <col min="7" max="7" width="2.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="18.5703125" customWidth="1"/>
-    <col min="9" max="9" width="4.7109375" style="3" customWidth="1"/>
-    <col min="10" max="10" width="24.140625" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" style="3" customWidth="1"/>
-    <col min="12" max="12" width="2.7109375" customWidth="1"/>
-    <col min="13" max="13" width="2.28515625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="18.5703125" customWidth="1"/>
-    <col min="15" max="15" width="4.7109375" style="3" customWidth="1"/>
-    <col min="16" max="16" width="28.85546875" customWidth="1"/>
-    <col min="17" max="17" width="10.42578125" style="3" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="2" width="2.28515625"/>
+    <col min="2" max="2" customWidth="true" width="18.5703125"/>
+    <col min="3" max="3" customWidth="true" style="3" width="4.7109375"/>
+    <col min="4" max="4" customWidth="true" width="22.140625"/>
+    <col min="5" max="5" customWidth="true" style="3" width="10.42578125"/>
+    <col min="6" max="6" customWidth="true" width="2.7109375"/>
+    <col min="7" max="7" customWidth="true" style="2" width="2.28515625"/>
+    <col min="8" max="8" customWidth="true" width="18.5703125"/>
+    <col min="9" max="9" customWidth="true" style="3" width="4.7109375"/>
+    <col min="10" max="10" customWidth="true" width="24.140625"/>
+    <col min="11" max="11" customWidth="true" style="3" width="10.42578125"/>
+    <col min="12" max="12" customWidth="true" width="2.7109375"/>
+    <col min="13" max="13" customWidth="true" style="2" width="2.28515625"/>
+    <col min="14" max="14" customWidth="true" width="18.5703125"/>
+    <col min="15" max="15" customWidth="true" style="3" width="4.7109375"/>
+    <col min="16" max="16" customWidth="true" width="28.85546875"/>
+    <col min="17" max="17" customWidth="true" style="3" width="10.42578125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75">
@@ -1704,130 +1705,93 @@
   <mergeCells count="126">
     <mergeCell ref="N35:Q35"/>
     <mergeCell ref="N36:P36"/>
-    <mergeCell ref="M35:M36"/>
     <mergeCell ref="N37:Q37"/>
     <mergeCell ref="N38:P38"/>
-    <mergeCell ref="M37:M38"/>
     <mergeCell ref="H37:K37"/>
     <mergeCell ref="H38:J38"/>
-    <mergeCell ref="G37:G38"/>
     <mergeCell ref="M30:Q30"/>
     <mergeCell ref="N31:Q31"/>
     <mergeCell ref="N32:P32"/>
-    <mergeCell ref="M31:M32"/>
     <mergeCell ref="N33:Q33"/>
     <mergeCell ref="N34:P34"/>
-    <mergeCell ref="M33:M34"/>
-    <mergeCell ref="G31:G32"/>
     <mergeCell ref="H33:K33"/>
     <mergeCell ref="H34:J34"/>
-    <mergeCell ref="G33:G34"/>
     <mergeCell ref="H35:K35"/>
     <mergeCell ref="H36:J36"/>
-    <mergeCell ref="G35:G36"/>
     <mergeCell ref="B33:E33"/>
     <mergeCell ref="B34:D34"/>
-    <mergeCell ref="A33:A34"/>
     <mergeCell ref="B35:E35"/>
     <mergeCell ref="B36:D36"/>
-    <mergeCell ref="A35:A36"/>
     <mergeCell ref="N28:Q28"/>
     <mergeCell ref="N29:P29"/>
-    <mergeCell ref="M28:M29"/>
     <mergeCell ref="A30:E30"/>
     <mergeCell ref="B31:E31"/>
     <mergeCell ref="B32:D32"/>
-    <mergeCell ref="A31:A32"/>
     <mergeCell ref="G30:K30"/>
     <mergeCell ref="H31:K31"/>
     <mergeCell ref="H32:J32"/>
     <mergeCell ref="N24:Q24"/>
     <mergeCell ref="N25:P25"/>
-    <mergeCell ref="M24:M25"/>
     <mergeCell ref="N26:Q26"/>
     <mergeCell ref="N27:P27"/>
-    <mergeCell ref="M26:M27"/>
     <mergeCell ref="B25:D25"/>
-    <mergeCell ref="A24:A25"/>
     <mergeCell ref="G21:K21"/>
     <mergeCell ref="H22:K22"/>
     <mergeCell ref="H23:J23"/>
-    <mergeCell ref="G22:G23"/>
     <mergeCell ref="H24:K24"/>
     <mergeCell ref="H25:J25"/>
-    <mergeCell ref="G24:G25"/>
     <mergeCell ref="A20:Q20"/>
     <mergeCell ref="A21:E21"/>
     <mergeCell ref="B22:E22"/>
     <mergeCell ref="B23:D23"/>
-    <mergeCell ref="A22:A23"/>
     <mergeCell ref="B24:E24"/>
     <mergeCell ref="M21:Q21"/>
     <mergeCell ref="N22:Q22"/>
     <mergeCell ref="N23:P23"/>
-    <mergeCell ref="M22:M23"/>
     <mergeCell ref="H17:K17"/>
     <mergeCell ref="H18:J18"/>
-    <mergeCell ref="G17:G18"/>
     <mergeCell ref="M10:Q10"/>
     <mergeCell ref="N11:Q11"/>
     <mergeCell ref="N12:P12"/>
-    <mergeCell ref="M11:M12"/>
     <mergeCell ref="N13:Q13"/>
     <mergeCell ref="N14:P14"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="G11:G12"/>
     <mergeCell ref="H13:K13"/>
     <mergeCell ref="H14:J14"/>
-    <mergeCell ref="G13:G14"/>
     <mergeCell ref="H15:K15"/>
     <mergeCell ref="H16:J16"/>
-    <mergeCell ref="G15:G16"/>
     <mergeCell ref="B13:E13"/>
     <mergeCell ref="B14:D14"/>
-    <mergeCell ref="A13:A14"/>
     <mergeCell ref="B15:E15"/>
     <mergeCell ref="B16:D16"/>
-    <mergeCell ref="A15:A16"/>
     <mergeCell ref="N8:Q8"/>
     <mergeCell ref="N9:P9"/>
-    <mergeCell ref="M8:M9"/>
     <mergeCell ref="A10:E10"/>
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="B12:D12"/>
-    <mergeCell ref="A11:A12"/>
     <mergeCell ref="G10:K10"/>
     <mergeCell ref="H11:K11"/>
     <mergeCell ref="H12:J12"/>
     <mergeCell ref="M3:Q3"/>
     <mergeCell ref="N4:Q4"/>
     <mergeCell ref="N5:P5"/>
-    <mergeCell ref="M4:M5"/>
     <mergeCell ref="N6:Q6"/>
     <mergeCell ref="N7:P7"/>
-    <mergeCell ref="M6:M7"/>
     <mergeCell ref="H6:K6"/>
     <mergeCell ref="H7:J7"/>
-    <mergeCell ref="G6:G7"/>
     <mergeCell ref="H8:K8"/>
     <mergeCell ref="H9:J9"/>
-    <mergeCell ref="G8:G9"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A6:A7"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B9:D9"/>
-    <mergeCell ref="A8:A9"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:D5"/>
-    <mergeCell ref="A4:A5"/>
     <mergeCell ref="G3:K3"/>
     <mergeCell ref="H4:K4"/>
     <mergeCell ref="H5:J5"/>
-    <mergeCell ref="G4:G5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.31496062992125984" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
